--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="SmokeTests" sheetId="1" r:id="rId1"/>
@@ -83,12 +83,6 @@
     <t>4242424242424242</t>
   </si>
   <si>
-    <t>3456d1a9a51e0bca734383f84cce90790841c0a32456d174a904eed420053ce2</t>
-  </si>
-  <si>
-    <t>3cd41b8c-6f15-4e6c-ab78-95e102064a48@mailslurp.net</t>
-  </si>
-  <si>
     <t>243366789</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>44000</t>
+  </si>
+  <si>
+    <t>4a092c6dab8961a86b880cab3244da1d1cd2c8cc6330bae722b49fb235733967</t>
+  </si>
+  <si>
+    <t>84af0cdc-3d0a-4630-9575-f111dd6104fd@mailslurp.net</t>
   </si>
 </sst>
 </file>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -527,12 +527,12 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -608,18 +608,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Key</t>
   </si>
@@ -84,15 +84,6 @@
   </si>
   <si>
     <t>243366789</t>
-  </si>
-  <si>
-    <t>newFirstName</t>
-  </si>
-  <si>
-    <t>newLastName</t>
-  </si>
-  <si>
-    <t>Maqbool</t>
   </si>
   <si>
     <t>country</t>
@@ -454,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -487,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -528,22 +519,6 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -608,18 +583,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
